--- a/teaching/traditional_assets/database/data/finland/finland_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_banks_regional.xlsx
@@ -591,10 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0329</v>
+        <v>-0.05980000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.0106</v>
+        <v>-0.0365</v>
+      </c>
+      <c r="F2">
+        <v>0.15</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02004748942723239</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01670945780934166</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>86.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="L2">
-        <v>0.3039181080127074</v>
+        <v>0.338010730499381</v>
       </c>
       <c r="M2">
-        <v>50.42</v>
+        <v>51.461</v>
       </c>
       <c r="N2">
-        <v>0.04947502698459426</v>
+        <v>0.04234079315451703</v>
       </c>
       <c r="O2">
-        <v>0.5855981416957027</v>
+        <v>0.6283394383394383</v>
       </c>
       <c r="P2">
-        <v>50.42</v>
+        <v>51.461</v>
       </c>
       <c r="Q2">
-        <v>0.04947502698459426</v>
+        <v>0.04234079315451703</v>
       </c>
       <c r="R2">
-        <v>0.5855981416957027</v>
+        <v>0.6283394383394383</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>118.6</v>
+        <v>167.1</v>
       </c>
       <c r="V2">
-        <v>0.116377195564714</v>
+        <v>0.1374856014480829</v>
       </c>
       <c r="W2">
-        <v>0.09136363295421304</v>
+        <v>0.08330007119091377</v>
       </c>
       <c r="X2">
-        <v>0.1292369200589727</v>
+        <v>0.13119530257857</v>
       </c>
       <c r="Y2">
-        <v>-0.03787328710475971</v>
+        <v>-0.04789523138765621</v>
       </c>
       <c r="Z2">
-        <v>0.05456941586974502</v>
+        <v>0.04751632577020376</v>
       </c>
       <c r="AA2">
-        <v>0.0006739021741409602</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04842731173800844</v>
+        <v>0.04240486615532164</v>
       </c>
       <c r="AC2">
-        <v>-0.04775340956386748</v>
+        <v>-0.04240486615532164</v>
       </c>
       <c r="AD2">
-        <v>4212.2</v>
+        <v>5288.9</v>
       </c>
       <c r="AE2">
-        <v>15.95273122632533</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4228.152731226325</v>
+        <v>5288.9</v>
       </c>
       <c r="AG2">
-        <v>4109.552731226325</v>
+        <v>5121.799999999999</v>
       </c>
       <c r="AH2">
-        <v>0.8057840831764496</v>
+        <v>0.8131390003536123</v>
       </c>
       <c r="AI2">
-        <v>0.8077236348466985</v>
+        <v>0.8199717833832034</v>
       </c>
       <c r="AJ2">
-        <v>0.8012928436750835</v>
+        <v>0.8082118285678218</v>
       </c>
       <c r="AK2">
-        <v>0.8032662967180284</v>
+        <v>0.815183829380869</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>474.8816234498309</v>
-      </c>
-      <c r="AP2">
-        <v>463.3092143434414</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0329</v>
+        <v>-0.05980000000000001</v>
       </c>
       <c r="E3">
-        <v>-0.0106</v>
+        <v>-0.0365</v>
+      </c>
+      <c r="F3">
+        <v>0.15</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +731,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0273793157517535</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02251978351875829</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L3">
-        <v>0.2935118434603502</v>
+        <v>0.3596614950634697</v>
       </c>
       <c r="M3">
-        <v>45.9</v>
+        <v>51.43</v>
       </c>
       <c r="N3">
-        <v>0.06336278299282165</v>
+        <v>0.06182976677085839</v>
       </c>
       <c r="O3">
-        <v>0.8052631578947368</v>
+        <v>1.00843137254902</v>
       </c>
       <c r="P3">
-        <v>45.9</v>
+        <v>51.43</v>
       </c>
       <c r="Q3">
-        <v>0.06336278299282165</v>
+        <v>0.06182976677085839</v>
       </c>
       <c r="R3">
-        <v>0.8052631578947368</v>
+        <v>1.00843137254902</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +767,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>23.9</v>
+        <v>26.1</v>
       </c>
       <c r="V3">
-        <v>0.03299282164549972</v>
+        <v>0.03137773503245973</v>
       </c>
       <c r="W3">
-        <v>0.0840831981118159</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="X3">
-        <v>0.1345479042448879</v>
+        <v>0.1366022809393718</v>
       </c>
       <c r="Y3">
-        <v>-0.05046470613307195</v>
+        <v>-0.05928269331050581</v>
       </c>
       <c r="Z3">
-        <v>0.04790608609993894</v>
+        <v>0.03794690644401628</v>
       </c>
       <c r="AA3">
-        <v>0.00107883468820162</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04791302723760647</v>
+        <v>0.0419249465116964</v>
       </c>
       <c r="AC3">
-        <v>-0.04683419254940485</v>
+        <v>-0.0419249465116964</v>
       </c>
       <c r="AD3">
-        <v>3101.1</v>
+        <v>3748</v>
       </c>
       <c r="AE3">
-        <v>11.36468440504736</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3112.464684405047</v>
+        <v>3748</v>
       </c>
       <c r="AG3">
-        <v>3088.564684405047</v>
+        <v>3721.9</v>
       </c>
       <c r="AH3">
-        <v>0.8112000136610689</v>
+        <v>0.8183763483121533</v>
       </c>
       <c r="AI3">
-        <v>0.8251355543485236</v>
+        <v>0.8317429319604102</v>
       </c>
       <c r="AJ3">
-        <v>0.8100165986423157</v>
+        <v>0.8173353536684455</v>
       </c>
       <c r="AK3">
-        <v>0.8240205392403404</v>
+        <v>0.8307627061895939</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>408.5770750988142</v>
-      </c>
-      <c r="AP3">
-        <v>406.9255183669364</v>
       </c>
     </row>
     <row r="4">
@@ -853,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004067234969073021</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00343468534452242</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>29.1</v>
+        <v>30.9</v>
       </c>
       <c r="L4">
-        <v>0.3265993265993266</v>
+        <v>0.3074626865671642</v>
       </c>
       <c r="M4">
-        <v>4.52</v>
+        <v>0.031</v>
       </c>
       <c r="N4">
-        <v>0.01533763148965049</v>
+        <v>8.08133472367049e-05</v>
       </c>
       <c r="O4">
-        <v>0.1553264604810996</v>
+        <v>0.001003236245954693</v>
       </c>
       <c r="P4">
-        <v>4.52</v>
+        <v>0.031</v>
       </c>
       <c r="Q4">
-        <v>0.01533763148965049</v>
+        <v>8.08133472367049e-05</v>
       </c>
       <c r="R4">
-        <v>0.1553264604810996</v>
+        <v>0.001003236245954693</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -889,67 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>94.7</v>
+        <v>141</v>
       </c>
       <c r="V4">
-        <v>0.321343739395996</v>
+        <v>0.367570385818561</v>
       </c>
       <c r="W4">
-        <v>0.09864406779661017</v>
+        <v>0.08928055475296157</v>
       </c>
       <c r="X4">
-        <v>0.1239259358730577</v>
+        <v>0.1257883242177681</v>
       </c>
       <c r="Y4">
-        <v>-0.02528186807644749</v>
+        <v>-0.03650776946480658</v>
       </c>
       <c r="Z4">
-        <v>0.07830984008746199</v>
+        <v>0.07376146788990827</v>
       </c>
       <c r="AA4">
-        <v>0.0002689696600803</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04894159623841041</v>
+        <v>0.04288478579894688</v>
       </c>
       <c r="AC4">
-        <v>-0.04867262657833011</v>
+        <v>-0.04288478579894688</v>
       </c>
       <c r="AD4">
-        <v>1111.1</v>
+        <v>1540.9</v>
       </c>
       <c r="AE4">
-        <v>4.588046821277969</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1115.688046821278</v>
+        <v>1540.9</v>
       </c>
       <c r="AG4">
-        <v>1020.988046821278</v>
+        <v>1399.9</v>
       </c>
       <c r="AH4">
-        <v>0.7910504129241646</v>
+        <v>0.800675500129904</v>
       </c>
       <c r="AI4">
-        <v>0.7628176978788138</v>
+        <v>0.7926848088893461</v>
       </c>
       <c r="AJ4">
-        <v>0.7760107339182721</v>
+        <v>0.7849172974488366</v>
       </c>
       <c r="AK4">
-        <v>0.7463973745467457</v>
+        <v>0.7764712407787454</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>868.0468749999999</v>
-      </c>
-      <c r="AP4">
-        <v>797.6469115791232</v>
       </c>
     </row>
   </sheetData>
